--- a/HW3_Excel1/HW3_Excel1.xlsx
+++ b/HW3_Excel1/HW3_Excel1.xlsx
@@ -346,11 +346,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1559059254"/>
-        <c:axId val="1583455628"/>
+        <c:axId val="1291635692"/>
+        <c:axId val="10271393"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1559059254"/>
+        <c:axId val="1291635692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,10 +402,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583455628"/>
+        <c:crossAx val="10271393"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1583455628"/>
+        <c:axId val="10271393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -483,7 +483,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1559059254"/>
+        <c:crossAx val="1291635692"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
     </c:plotArea>
